--- a/level 2/hackerrank - phase 2-mathematics.xlsx
+++ b/level 2/hackerrank - phase 2-mathematics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60885" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
+    <workbookView xWindow="61845" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="level 2 - mathematics" sheetId="14" r:id="rId1"/>
@@ -734,21 +734,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -1284,7 +1270,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
-        <f>SUM(C4:F4)</f>
+        <f t="shared" ref="G4:G35" si="0">SUM(C4:F4)</f>
         <v>0</v>
       </c>
       <c r="H4" s="3"/>
@@ -1304,7 +1290,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="8">
-        <f>SUM(C5:F5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -1323,7 +1309,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="8">
-        <f>SUM(C6:F6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="3"/>
@@ -1343,7 +1329,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8">
-        <f>SUM(C7:F7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="3"/>
@@ -1363,7 +1349,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8">
-        <f>SUM(C8:F8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="3"/>
@@ -1383,7 +1369,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8">
-        <f>SUM(C9:F9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="3"/>
@@ -1403,7 +1389,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="8">
-        <f>SUM(C10:F10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="3"/>
@@ -1423,7 +1409,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="8">
-        <f>SUM(C11:F11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="3"/>
@@ -1443,7 +1429,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="8">
-        <f>SUM(C12:F12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="3"/>
@@ -1463,7 +1449,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="8">
-        <f>SUM(C13:F13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="3"/>
@@ -1483,7 +1469,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="8">
-        <f>SUM(C14:F14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="3"/>
@@ -1503,7 +1489,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="8">
-        <f>SUM(C15:F15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="3"/>
@@ -1523,7 +1509,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="8">
-        <f>SUM(C16:F16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="3"/>
@@ -1543,7 +1529,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="8">
-        <f>SUM(C17:F17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="3"/>
@@ -1563,7 +1549,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="8">
-        <f>SUM(C18:F18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="3"/>
@@ -1583,7 +1569,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="8">
-        <f>SUM(C19:F19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="3"/>
@@ -1603,7 +1589,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="8">
-        <f>SUM(C20:F20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
@@ -1623,7 +1609,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="8">
-        <f>SUM(C21:F21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="3"/>
@@ -1643,7 +1629,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="8">
-        <f>SUM(C22:F22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="3"/>
@@ -1663,7 +1649,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="8">
-        <f>SUM(C23:F23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="3"/>
@@ -1683,7 +1669,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="8">
-        <f>SUM(C24:F24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="3"/>
@@ -1703,7 +1689,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="8">
-        <f>SUM(C25:F25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="3"/>
@@ -1723,7 +1709,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="8">
-        <f>SUM(C26:F26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="3"/>
@@ -1743,7 +1729,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="8">
-        <f>SUM(C27:F27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="3"/>
@@ -1763,7 +1749,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="8">
-        <f>SUM(C28:F28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="3"/>
@@ -1783,7 +1769,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="8">
-        <f>SUM(C29:F29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="3"/>
@@ -1803,7 +1789,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="8">
-        <f>SUM(C30:F30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="3"/>
@@ -1823,7 +1809,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="8">
-        <f>SUM(C31:F31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="3"/>
@@ -1843,7 +1829,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="8">
-        <f>SUM(C32:F32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="3"/>
@@ -1863,7 +1849,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="8">
-        <f>SUM(C33:F33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="3"/>
@@ -1883,7 +1869,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="8">
-        <f>SUM(C34:F34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="3"/>
@@ -1903,7 +1889,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="8">
-        <f>SUM(C35:F35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="3"/>
@@ -1923,7 +1909,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="8">
-        <f>SUM(C36:F36)</f>
+        <f t="shared" ref="G36:G67" si="1">SUM(C36:F36)</f>
         <v>0</v>
       </c>
       <c r="H36" s="3"/>
@@ -1943,7 +1929,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="8">
-        <f>SUM(C37:F37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H37" s="3"/>
@@ -1963,7 +1949,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="8">
-        <f>SUM(C38:F38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" s="3"/>
@@ -1983,7 +1969,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
-        <f>SUM(C39:F39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="3"/>
@@ -2003,7 +1989,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="8">
-        <f>SUM(C40:F40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="3"/>
@@ -2023,7 +2009,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="8">
-        <f>SUM(C41:F41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" s="3"/>
@@ -2043,7 +2029,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="8">
-        <f>SUM(C42:F42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" s="3"/>
@@ -2063,7 +2049,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="8">
-        <f>SUM(C43:F43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43" s="3"/>
@@ -2083,7 +2069,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="8">
-        <f>SUM(C44:F44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44" s="3"/>
@@ -2103,7 +2089,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="8">
-        <f>SUM(C45:F45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H45" s="3"/>
@@ -2123,7 +2109,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="8">
-        <f>SUM(C46:F46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H46" s="3"/>
@@ -2143,7 +2129,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="8">
-        <f>SUM(C47:F47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H47" s="3"/>
@@ -2163,7 +2149,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="8">
-        <f>SUM(C48:F48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48" s="3"/>
@@ -2183,7 +2169,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="8">
-        <f>SUM(C49:F49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H49" s="3"/>
@@ -2203,7 +2189,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="8">
-        <f>SUM(C50:F50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H50" s="3"/>
@@ -2223,7 +2209,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="8">
-        <f>SUM(C51:F51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H51" s="3"/>
@@ -2243,7 +2229,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="8">
-        <f>SUM(C52:F52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H52" s="3"/>
@@ -2263,7 +2249,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="8">
-        <f>SUM(C53:F53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H53" s="3"/>
@@ -2283,7 +2269,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="8">
-        <f>SUM(C54:F54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H54" s="3"/>
@@ -2303,7 +2289,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="8">
-        <f>SUM(C55:F55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" s="3"/>
@@ -2323,7 +2309,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="8">
-        <f>SUM(C56:F56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H56" s="3"/>
@@ -2343,7 +2329,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="8">
-        <f t="shared" ref="G57:G85" si="0">SUM(C57:F57)</f>
+        <f t="shared" ref="G57:G85" si="2">SUM(C57:F57)</f>
         <v>0</v>
       </c>
       <c r="H57" s="3"/>
@@ -2363,7 +2349,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="3"/>
@@ -2383,7 +2369,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59" s="3"/>
@@ -2403,7 +2389,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H60" s="3"/>
@@ -2423,7 +2409,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H61" s="3"/>
@@ -2443,7 +2429,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H62" s="3"/>
@@ -2463,7 +2449,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H63" s="3"/>
@@ -2483,7 +2469,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H64" s="3"/>
@@ -2503,7 +2489,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H65" s="3"/>
@@ -2523,7 +2509,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H66" s="3"/>
@@ -2543,7 +2529,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H67" s="3"/>
@@ -2563,7 +2549,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H68" s="3"/>
@@ -2583,7 +2569,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H69" s="3"/>
@@ -2603,7 +2589,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H70" s="3"/>
@@ -2623,7 +2609,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H71" s="3"/>
@@ -2643,7 +2629,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H72" s="3"/>
@@ -2663,7 +2649,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H73" s="3"/>
@@ -2683,7 +2669,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I74" s="13" t="s">
@@ -2702,7 +2688,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I75" s="13" t="s">
@@ -2721,7 +2707,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I76" s="13" t="s">
@@ -2740,7 +2726,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I77" s="13" t="s">
@@ -2759,7 +2745,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I78" s="13" t="s">
@@ -2778,7 +2764,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I79" s="13" t="s">
@@ -2797,7 +2783,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I80" s="13" t="s">
@@ -2816,7 +2802,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I81" s="13" t="s">
@@ -2835,7 +2821,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I82" s="13" t="s">
@@ -2854,7 +2840,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I83" s="13" t="s">
@@ -2873,7 +2859,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I84" s="13" t="s">
@@ -2892,7 +2878,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I85" s="13" t="s">
@@ -2911,7 +2897,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="8">
-        <f t="shared" ref="G86:G121" si="1">SUM(C86:F86)</f>
+        <f t="shared" ref="G86:G121" si="3">SUM(C86:F86)</f>
         <v>0</v>
       </c>
       <c r="I86" s="13" t="s">
@@ -2930,7 +2916,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I87" s="13" t="s">
@@ -2949,7 +2935,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I88" s="13" t="s">
@@ -2968,7 +2954,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I89" s="13" t="s">
@@ -2987,7 +2973,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I90" s="13" t="s">
@@ -3006,7 +2992,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I91" s="13" t="s">
@@ -3025,7 +3011,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I92" s="13" t="s">
@@ -3044,7 +3030,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I93" s="13" t="s">
@@ -3063,7 +3049,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I94" s="13" t="s">
@@ -3082,7 +3068,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I95" s="13" t="s">
@@ -3101,7 +3087,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I96" s="13" t="s">
@@ -3120,7 +3106,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I97" s="13" t="s">
@@ -3139,7 +3125,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I98" s="13" t="s">
@@ -3158,7 +3144,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I99" s="13" t="s">
@@ -3177,7 +3163,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I100" s="13" t="s">
@@ -3196,7 +3182,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I101" s="13" t="s">
@@ -3215,7 +3201,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I102" s="13" t="s">
@@ -3234,7 +3220,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I103" s="13" t="s">
@@ -3253,7 +3239,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I104" s="13" t="s">
@@ -3272,7 +3258,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I105" s="13" t="s">
@@ -3291,7 +3277,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I106" s="13" t="s">
@@ -3310,7 +3296,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I107" s="13" t="s">
@@ -3329,7 +3315,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I108" s="13" t="s">
@@ -3348,7 +3334,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I109" s="13" t="s">
@@ -3367,7 +3353,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I110" s="13" t="s">
@@ -3386,7 +3372,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I111" s="13" t="s">
@@ -3405,7 +3391,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I112" s="13" t="s">
@@ -3424,7 +3410,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I113" s="13" t="s">
@@ -3443,7 +3429,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I114" s="13" t="s">
@@ -3462,7 +3448,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
       <c r="G115" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I115" s="13" t="s">
@@ -3481,7 +3467,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I116" s="13" t="s">
@@ -3500,7 +3486,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I117" s="13" t="s">
@@ -3519,7 +3505,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I118" s="13" t="s">
@@ -3538,7 +3524,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I119" s="13" t="s">
@@ -3557,7 +3543,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I120" s="13" t="s">
@@ -3576,7 +3562,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I121" s="13" t="s">
@@ -3595,7 +3581,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="8">
-        <f t="shared" ref="G122:G165" si="2">SUM(C122:F122)</f>
+        <f t="shared" ref="G122:G165" si="4">SUM(C122:F122)</f>
         <v>0</v>
       </c>
       <c r="I122" s="13" t="s">
@@ -3614,7 +3600,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I123" s="13" t="s">
@@ -3633,7 +3619,7 @@
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I124" s="13" t="s">
@@ -3652,7 +3638,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I125" s="13" t="s">
@@ -3671,7 +3657,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I126" s="13" t="s">
@@ -3690,7 +3676,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I127" s="13" t="s">
@@ -3709,7 +3695,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I128" s="13" t="s">
@@ -3728,7 +3714,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I129" s="13" t="s">
@@ -3747,7 +3733,7 @@
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I130" s="13" t="s">
@@ -3766,7 +3752,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I131" s="13" t="s">
@@ -3785,7 +3771,7 @@
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I132" s="13" t="s">
@@ -3804,7 +3790,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I133" s="13" t="s">
@@ -3823,7 +3809,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I134" s="13" t="s">
@@ -3842,7 +3828,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I135" s="13" t="s">
@@ -3861,7 +3847,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I136" s="13" t="s">
@@ -3880,7 +3866,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I137" s="13" t="s">
@@ -3899,7 +3885,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I138" s="13" t="s">
@@ -3918,7 +3904,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I139" s="13" t="s">
@@ -3937,7 +3923,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I140" s="13" t="s">
@@ -3956,7 +3942,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I141" s="13" t="s">
@@ -3975,7 +3961,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I142" s="13" t="s">
@@ -3994,7 +3980,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I143" s="13" t="s">
@@ -4013,7 +3999,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I144" s="13" t="s">
@@ -4026,10 +4012,7 @@
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G145" s="8"/>
       <c r="I145" s="14"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4038,10 +4021,7 @@
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G146" s="8"/>
       <c r="I146" s="14"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4050,10 +4030,7 @@
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G147" s="8"/>
       <c r="I147" s="14"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4062,10 +4039,7 @@
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G148" s="8"/>
       <c r="I148" s="14"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4074,10 +4048,7 @@
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
-      <c r="G149" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G149" s="8"/>
       <c r="I149" s="14"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4086,10 +4057,7 @@
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
-      <c r="G150" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G150" s="8"/>
       <c r="I150" s="14"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4098,10 +4066,7 @@
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G151" s="8"/>
       <c r="I151" s="14"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4110,10 +4075,7 @@
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G152" s="8"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
@@ -4121,10 +4083,7 @@
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G153" s="8"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
@@ -4132,10 +4091,7 @@
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G154" s="8"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
@@ -4143,10 +4099,7 @@
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
-      <c r="G155" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G155" s="8"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
@@ -4154,10 +4107,7 @@
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G156" s="8"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
@@ -4165,10 +4115,7 @@
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G157" s="8"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
@@ -4176,10 +4123,7 @@
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G158" s="8"/>
     </row>
     <row r="159" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -4187,10 +4131,7 @@
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
@@ -4198,10 +4139,7 @@
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G160" s="8"/>
     </row>
     <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
@@ -4209,10 +4147,7 @@
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
@@ -4220,10 +4155,7 @@
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G162" s="8"/>
     </row>
     <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
@@ -4231,10 +4163,7 @@
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G163" s="8"/>
     </row>
     <row r="164" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
@@ -4242,10 +4171,7 @@
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G164" s="8"/>
     </row>
     <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
@@ -4253,10 +4179,7 @@
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
@@ -4264,10 +4187,7 @@
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="8">
-        <f t="shared" ref="G166:G204" si="3">SUM(C166:F166)</f>
-        <v>0</v>
-      </c>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
@@ -4275,380 +4195,266 @@
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G167" s="8"/>
     </row>
     <row r="168" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G168" s="8"/>
     </row>
     <row r="169" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G169" s="8"/>
     </row>
     <row r="170" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G170" s="8"/>
     </row>
     <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G171" s="8"/>
     </row>
     <row r="172" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G172" s="8"/>
     </row>
     <row r="173" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G173" s="8"/>
     </row>
     <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G174" s="8"/>
     </row>
     <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G175" s="8"/>
     </row>
     <row r="176" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G176" s="8"/>
     </row>
     <row r="177" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G177" s="8"/>
     </row>
     <row r="178" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G178" s="8"/>
     </row>
     <row r="179" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G179" s="8"/>
     </row>
     <row r="180" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
-      <c r="G180" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G180" s="8"/>
     </row>
     <row r="181" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
-      <c r="G181" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G181" s="8"/>
     </row>
     <row r="182" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
-      <c r="G182" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G182" s="8"/>
     </row>
     <row r="183" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G183" s="8"/>
     </row>
     <row r="184" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G184" s="8"/>
     </row>
     <row r="185" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
-      <c r="G185" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G185" s="8"/>
     </row>
     <row r="186" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
-      <c r="G186" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G186" s="8"/>
     </row>
     <row r="187" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
-      <c r="G187" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G187" s="8"/>
     </row>
     <row r="188" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
-      <c r="G188" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G188" s="8"/>
     </row>
     <row r="189" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
-      <c r="G189" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G189" s="8"/>
     </row>
     <row r="190" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
-      <c r="G190" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G190" s="8"/>
     </row>
     <row r="191" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
-      <c r="G191" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G191" s="8"/>
     </row>
     <row r="192" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
-      <c r="G192" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G192" s="8"/>
     </row>
     <row r="193" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G193" s="8"/>
     </row>
     <row r="194" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
-      <c r="G194" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G194" s="8"/>
     </row>
     <row r="195" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
-      <c r="G195" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G195" s="8"/>
     </row>
     <row r="196" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
-      <c r="G196" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G196" s="8"/>
     </row>
     <row r="197" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
-      <c r="G197" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G197" s="8"/>
     </row>
     <row r="198" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
-      <c r="G198" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G198" s="8"/>
     </row>
     <row r="199" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G199" s="8"/>
     </row>
     <row r="200" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
-      <c r="G200" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G200" s="8"/>
     </row>
     <row r="201" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
-      <c r="G201" s="8">
-        <f>SUM(C201:F201)</f>
-        <v>0</v>
-      </c>
+      <c r="G201" s="8"/>
     </row>
     <row r="202" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
-      <c r="G202" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G202" s="8"/>
     </row>
     <row r="203" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
-      <c r="G203" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G203" s="8"/>
     </row>
     <row r="204" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
-      <c r="G204" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G204" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4663,77 +4469,77 @@
     <mergeCell ref="G1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1 I20:I23 A1 H24:I26">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H23">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
